--- a/img_lbl.xlsx
+++ b/img_lbl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE997A-2C6F-4176-9DA2-36D07312C6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB89621-2FCE-466A-AC5F-AC34506BF971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,310 +292,310 @@
     <t>amirmohamad ghobadi-</t>
   </si>
   <si>
-    <t>alireza fazli1oor</t>
-  </si>
-  <si>
-    <t>melisa gholi1oor</t>
-  </si>
-  <si>
-    <t>asra 1ajoohi-</t>
-  </si>
-  <si>
-    <t>maleka 1irak</t>
-  </si>
-  <si>
-    <t>mohamadhesam 1iri</t>
-  </si>
-  <si>
-    <t>mohamad sadra 1oormohamad</t>
-  </si>
-  <si>
-    <t>hamidreza malek1oor</t>
-  </si>
-  <si>
-    <t>0ame</t>
-  </si>
-  <si>
-    <t>Abbasi Azizlou, Adi0a</t>
-  </si>
-  <si>
-    <t>1armis abdolva0d</t>
-  </si>
-  <si>
-    <t>adri0a akbari</t>
-  </si>
-  <si>
-    <t>zei0ab alamati</t>
-  </si>
-  <si>
-    <t>reiha0e alizade</t>
-  </si>
-  <si>
-    <t>Sobha0 amiri0ia</t>
-  </si>
-  <si>
-    <t>avi0a asadollahi</t>
-  </si>
-  <si>
-    <t>seyed 0oorollah chekameh</t>
-  </si>
-  <si>
-    <t>mohamad ami0 damercheli</t>
-  </si>
-  <si>
-    <t>mohamadtaha do0yavi</t>
-  </si>
-  <si>
-    <t>da0ial fatahi</t>
-  </si>
-  <si>
-    <t>maha0 fllah</t>
-  </si>
-  <si>
-    <t>0aza0i0 zahra hamedi</t>
-  </si>
-  <si>
-    <t>mohamad hasa0 0ejad miraliloo-</t>
-  </si>
-  <si>
-    <t>viha0 heidari</t>
-  </si>
-  <si>
-    <t>soga0d hematia0</t>
-  </si>
-  <si>
-    <t>amihosei0 hooti-</t>
-  </si>
-  <si>
-    <t>fateme hosei0i</t>
-  </si>
-  <si>
-    <t>helma hosei0i</t>
-  </si>
-  <si>
-    <t>syed ali hosie0i</t>
-  </si>
-  <si>
-    <t>malaek hos0ayee</t>
-  </si>
-  <si>
-    <t>yalda jaha0giri</t>
-  </si>
-  <si>
-    <t>maha0 kerma0i</t>
-  </si>
-  <si>
-    <t>mohamad hosei0 khaksar</t>
-  </si>
-  <si>
-    <t>mohamad kharami0</t>
-  </si>
-  <si>
-    <t>sari0a kheyra0dish</t>
-  </si>
-  <si>
-    <t>meli0a koti*</t>
-  </si>
-  <si>
-    <t>ahmadali mada0i*</t>
-  </si>
-  <si>
-    <t>mohamad hosei0 mahboobi</t>
-  </si>
-  <si>
-    <t>mohamad ami0 masoomi</t>
-  </si>
-  <si>
-    <t>hosei0 mirzamohamadi</t>
-  </si>
-  <si>
-    <t>ariobarza0 mirzayee</t>
-  </si>
-  <si>
-    <t>yas0a mirzayee</t>
-  </si>
-  <si>
-    <t>reiha0e mirzayye tabar</t>
-  </si>
-  <si>
-    <t>amirhosei0 mohamadi</t>
-  </si>
-  <si>
-    <t>0aza0i0 zahra mohamadi</t>
-  </si>
-  <si>
-    <t>ha0a0e mohamad0ejad</t>
-  </si>
-  <si>
-    <t>erfa0 mohebi</t>
-  </si>
-  <si>
-    <t>sari0a moradveisi</t>
-  </si>
-  <si>
-    <t>samir 0abatzeei</t>
-  </si>
-  <si>
-    <t>farza0 0abi bayati</t>
-  </si>
-  <si>
-    <t>1ardis 0asiri</t>
-  </si>
-  <si>
-    <t>0aza0i0 fateme ze0dedel-</t>
-  </si>
-  <si>
-    <t>zei0ab 0oorizade</t>
-  </si>
-  <si>
-    <t>El0az 1aradva0d</t>
-  </si>
-  <si>
-    <t>1ar0ia 1arsa ami0</t>
-  </si>
-  <si>
-    <t>amirhosei0 1arvizi</t>
-  </si>
-  <si>
-    <t>yas0a 1ooraha0gara0</t>
-  </si>
-  <si>
-    <t>fateme zahra ra0jbar</t>
-  </si>
-  <si>
-    <t>se1ehr ra0jbar</t>
-  </si>
-  <si>
-    <t>maha0 sabzi</t>
-  </si>
-  <si>
-    <t>mahya safariavi0a</t>
-  </si>
-  <si>
-    <t>sari0a safari-</t>
-  </si>
-  <si>
-    <t>amirhosei0 salehi</t>
-  </si>
-  <si>
-    <t>reiha0e seififard</t>
-  </si>
-  <si>
-    <t>Seyedhosei0 seyedolhosei0i</t>
-  </si>
-  <si>
-    <t>ami0 shahmohamadi</t>
-  </si>
-  <si>
-    <t>ava sheikh hosei0i</t>
-  </si>
-  <si>
-    <t>mohamadhosei0 shsahbzade-</t>
-  </si>
-  <si>
-    <t>zahra siah sara0i</t>
-  </si>
-  <si>
-    <t>0arges sheikh sofla</t>
-  </si>
-  <si>
-    <t>aria0 soleima0ia0</t>
-  </si>
-  <si>
-    <t>mohamad hesam tajgardoo0</t>
-  </si>
-  <si>
-    <t>amirmahdi za0gi</t>
-  </si>
-  <si>
-    <t>mahla zei0va0d</t>
-  </si>
-  <si>
-    <t>kia0 zareb</t>
-  </si>
-  <si>
-    <t>Erfa0 Samiee</t>
-  </si>
-  <si>
-    <t>0aza0i0 zahra zare</t>
-  </si>
-  <si>
-    <t>mohamad moei0 abdi</t>
-  </si>
-  <si>
-    <t>mohamadradi0 amrayee</t>
-  </si>
-  <si>
-    <t>ai0az ahadzade</t>
-  </si>
-  <si>
-    <t>yasami0 moosavi</t>
-  </si>
-  <si>
-    <t>hesam sadegh koohesta0i</t>
-  </si>
-  <si>
-    <t>bara0 mahdavi</t>
-  </si>
-  <si>
-    <t>avi0a farhadi</t>
-  </si>
-  <si>
-    <t>mohse0 hosei0i</t>
-  </si>
-  <si>
-    <t>mohamad mahdi ghorba0i</t>
-  </si>
-  <si>
-    <t>1ar0ia0 zodolaghi</t>
-  </si>
-  <si>
-    <t>maede ebrahimva0d</t>
-  </si>
-  <si>
-    <t>0aza0i0 zahra golzari</t>
-  </si>
-  <si>
-    <t>mohamad ami0 chegi0i</t>
-  </si>
-  <si>
-    <t>maha0d halimi</t>
-  </si>
-  <si>
-    <t>beheshteh erfa0i</t>
-  </si>
-  <si>
-    <t>eli0a chabok</t>
-  </si>
-  <si>
-    <t>ate0a sharja0i</t>
-  </si>
-  <si>
-    <t>aliasghar eska0dari</t>
-  </si>
-  <si>
-    <t>ar0ika jamshidi</t>
-  </si>
-  <si>
-    <t>0aza0i0 roghaye akradi</t>
-  </si>
-  <si>
-    <t>mersa0a khosh0oodi</t>
-  </si>
-  <si>
-    <t>dia0a shahmoradi</t>
-  </si>
-  <si>
-    <t>mohamadami0 masoomi</t>
-  </si>
-  <si>
-    <t>sakoo ma0iee</t>
-  </si>
-  <si>
-    <t>seyed sobha0 hosei0i</t>
-  </si>
-  <si>
-    <t>ata0az saremi</t>
+    <t>alireza fazlipoor</t>
+  </si>
+  <si>
+    <t>melisa gholipoor</t>
+  </si>
+  <si>
+    <t>asra pajoohi-</t>
+  </si>
+  <si>
+    <t>maleka pirak</t>
+  </si>
+  <si>
+    <t>mohamadhesam piri</t>
+  </si>
+  <si>
+    <t>mohamad sadra poormohamad</t>
+  </si>
+  <si>
+    <t>hamidreza malekpoor</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Abbasi Azizlou, Adina</t>
+  </si>
+  <si>
+    <t>parmis abdolvand</t>
+  </si>
+  <si>
+    <t>adrina akbari</t>
+  </si>
+  <si>
+    <t>zeinab alamati</t>
+  </si>
+  <si>
+    <t>reihane alizade</t>
+  </si>
+  <si>
+    <t>Sobhan amirinia</t>
+  </si>
+  <si>
+    <t>avina asadollahi</t>
+  </si>
+  <si>
+    <t>seyed noorollah chekameh</t>
+  </si>
+  <si>
+    <t>mohamad amin damercheli</t>
+  </si>
+  <si>
+    <t>mohamadtaha donyavi</t>
+  </si>
+  <si>
+    <t>danial fatahi</t>
+  </si>
+  <si>
+    <t>mahan fllah</t>
+  </si>
+  <si>
+    <t>nazanin zahra hamedi</t>
+  </si>
+  <si>
+    <t>mohamad hasan nejad miraliloo-</t>
+  </si>
+  <si>
+    <t>vihan heidari</t>
+  </si>
+  <si>
+    <t>sogand hematian</t>
+  </si>
+  <si>
+    <t>amihosein hooti-</t>
+  </si>
+  <si>
+    <t>fateme hoseini</t>
+  </si>
+  <si>
+    <t>helma hoseini</t>
+  </si>
+  <si>
+    <t>syed ali hosieni</t>
+  </si>
+  <si>
+    <t>malaek hosnayee</t>
+  </si>
+  <si>
+    <t>yalda jahangiri</t>
+  </si>
+  <si>
+    <t>mahan kermani</t>
+  </si>
+  <si>
+    <t>mohamad hosein khaksar</t>
+  </si>
+  <si>
+    <t>mohamad kharamin</t>
+  </si>
+  <si>
+    <t>sarina kheyrandish</t>
+  </si>
+  <si>
+    <t>melina koti*</t>
+  </si>
+  <si>
+    <t>ahmadali madani*</t>
+  </si>
+  <si>
+    <t>mohamad hosein mahboobi</t>
+  </si>
+  <si>
+    <t>mohamad amin masoomi</t>
+  </si>
+  <si>
+    <t>hosein mirzamohamadi</t>
+  </si>
+  <si>
+    <t>ariobarzan mirzayee</t>
+  </si>
+  <si>
+    <t>yasna mirzayee</t>
+  </si>
+  <si>
+    <t>reihane mirzayye tabar</t>
+  </si>
+  <si>
+    <t>amirhosein mohamadi</t>
+  </si>
+  <si>
+    <t>nazanin zahra mohamadi</t>
+  </si>
+  <si>
+    <t>hanane mohamadnejad</t>
+  </si>
+  <si>
+    <t>erfan mohebi</t>
+  </si>
+  <si>
+    <t>sarina moradveisi</t>
+  </si>
+  <si>
+    <t>samir nabatzeei</t>
+  </si>
+  <si>
+    <t>farzan nabi bayati</t>
+  </si>
+  <si>
+    <t>pardis nasiri</t>
+  </si>
+  <si>
+    <t>nazanin fateme zendedel-</t>
+  </si>
+  <si>
+    <t>zeinab noorizade</t>
+  </si>
+  <si>
+    <t>Elnaz paradvand</t>
+  </si>
+  <si>
+    <t>parnia parsa amin</t>
+  </si>
+  <si>
+    <t>amirhosein parvizi</t>
+  </si>
+  <si>
+    <t>yasna poorahangaran</t>
+  </si>
+  <si>
+    <t>fateme zahra ranjbar</t>
+  </si>
+  <si>
+    <t>sepehr ranjbar</t>
+  </si>
+  <si>
+    <t>mahan sabzi</t>
+  </si>
+  <si>
+    <t>mahya safariavina</t>
+  </si>
+  <si>
+    <t>sarina safari-</t>
+  </si>
+  <si>
+    <t>amirhosein salehi</t>
+  </si>
+  <si>
+    <t>reihane seififard</t>
+  </si>
+  <si>
+    <t>Seyedhosein seyedolhoseini</t>
+  </si>
+  <si>
+    <t>amin shahmohamadi</t>
+  </si>
+  <si>
+    <t>ava sheikh hoseini</t>
+  </si>
+  <si>
+    <t>mohamadhosein shsahbzade-</t>
+  </si>
+  <si>
+    <t>zahra siah sarani</t>
+  </si>
+  <si>
+    <t>narges sheikh sofla</t>
+  </si>
+  <si>
+    <t>arian soleimanian</t>
+  </si>
+  <si>
+    <t>mohamad hesam tajgardoon</t>
+  </si>
+  <si>
+    <t>amirmahdi zangi</t>
+  </si>
+  <si>
+    <t>mahla zeinvand</t>
+  </si>
+  <si>
+    <t>kian zareb</t>
+  </si>
+  <si>
+    <t>Erfan Samiee</t>
+  </si>
+  <si>
+    <t>nazanin zahra zare</t>
+  </si>
+  <si>
+    <t>mohamad moein abdi</t>
+  </si>
+  <si>
+    <t>mohamadradin amrayee</t>
+  </si>
+  <si>
+    <t>yasamin moosavi</t>
+  </si>
+  <si>
+    <t>hesam sadegh koohestani</t>
+  </si>
+  <si>
+    <t>baran mahdavi</t>
+  </si>
+  <si>
+    <t>avina farhadi</t>
+  </si>
+  <si>
+    <t>mohsen hoseini</t>
+  </si>
+  <si>
+    <t>mohamad mahdi ghorbani</t>
+  </si>
+  <si>
+    <t>parnian zodolaghi</t>
+  </si>
+  <si>
+    <t>maede ebrahimvand</t>
+  </si>
+  <si>
+    <t>nazanin zahra golzari</t>
+  </si>
+  <si>
+    <t>mohamad amin chegini</t>
+  </si>
+  <si>
+    <t>mahand halimi</t>
+  </si>
+  <si>
+    <t>beheshteh erfani</t>
+  </si>
+  <si>
+    <t>elina chabok</t>
+  </si>
+  <si>
+    <t>atena sharjani</t>
+  </si>
+  <si>
+    <t>aliasghar eskandari</t>
+  </si>
+  <si>
+    <t>arnika jamshidi</t>
+  </si>
+  <si>
+    <t>nazanin roghaye akradi</t>
+  </si>
+  <si>
+    <t>mersana khoshnoodi</t>
+  </si>
+  <si>
+    <t>diana shahmoradi</t>
+  </si>
+  <si>
+    <t>mohamadamin masoomi</t>
+  </si>
+  <si>
+    <t>sakoo maniee</t>
+  </si>
+  <si>
+    <t>seyed sobhan hoseini</t>
+  </si>
+  <si>
+    <t>atanaz saremi</t>
+  </si>
+  <si>
+    <t>aynaz ahadzade</t>
   </si>
 </sst>
 </file>
@@ -688,10 +688,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -990,18 +992,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1016,7 +1018,7 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1041,7 +1043,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="2">
@@ -1055,120 +1057,132 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
       <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="8">
-        <v>1</v>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6">
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
       <c r="I8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1177,9 +1191,9 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="2">
@@ -1189,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1197,7 +1211,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1206,9 +1220,9 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="2">
@@ -1218,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1226,25 +1240,25 @@
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1255,91 +1269,99 @@
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="8">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3">
         <v>1</v>
@@ -1347,24 +1369,36 @@
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -1373,9 +1407,9 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="2">
@@ -1385,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -1393,142 +1427,138 @@
     </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="8">
-        <v>0</v>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
         <v>1</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
       <c r="I22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -1539,41 +1569,33 @@
     </row>
     <row r="24" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="2"/>
@@ -1585,101 +1607,115 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="6">
+        <v>1</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
       <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="8">
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -1690,7 +1726,7 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="2">
@@ -1708,49 +1744,57 @@
     </row>
     <row r="31" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="8">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1758,29 +1802,21 @@
     </row>
     <row r="33" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="3">
         <v>1</v>
       </c>
@@ -1792,7 +1828,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="8">
+      <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="2"/>
@@ -1804,10 +1840,10 @@
     </row>
     <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="B35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1815,11 +1851,11 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -1833,7 +1869,7 @@
     </row>
     <row r="36" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -1842,17 +1878,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
         <v>1</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2">
         <v>1</v>
       </c>
@@ -1862,7 +1896,7 @@
     </row>
     <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -1873,8 +1907,8 @@
       <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="E37" s="8">
-        <v>0</v>
+      <c r="E37" s="6">
+        <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -1886,74 +1920,78 @@
         <v>1</v>
       </c>
       <c r="I37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="8">
-        <v>1</v>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
       <c r="I38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" s="2"/>
       <c r="I39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="B40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -1965,116 +2003,122 @@
         <v>1</v>
       </c>
       <c r="I40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="8">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
       <c r="I43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
       </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2">
         <v>1</v>
       </c>
-      <c r="E45" s="8">
-        <v>1</v>
+      <c r="E45" s="6">
+        <v>0</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -2084,31 +2128,29 @@
         <v>1</v>
       </c>
       <c r="I45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="B46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="6">
         <v>1</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
       </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2">
         <v>1</v>
       </c>
@@ -2118,19 +2160,23 @@
     </row>
     <row r="47" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="8">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2"/>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
       <c r="G47" s="2">
         <v>1</v>
       </c>
@@ -2138,112 +2184,104 @@
         <v>1</v>
       </c>
       <c r="I47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
       </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8">
-        <v>1</v>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="6">
+        <v>0</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
       </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
       </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8">
-        <v>0</v>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="6">
+        <v>1</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
       </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="8">
-        <v>0</v>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
       </c>
       <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
       <c r="I50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
       </c>
       <c r="C51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -2251,7 +2289,7 @@
     </row>
     <row r="52" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -2262,7 +2300,7 @@
       <c r="D52" s="2">
         <v>1</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="2">
@@ -2280,114 +2318,126 @@
     </row>
     <row r="53" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2">
-        <v>0</v>
-      </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
       </c>
       <c r="C54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
       </c>
-      <c r="E54" s="8">
-        <v>1</v>
+      <c r="E54" s="6">
+        <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="B55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2">
-        <v>0</v>
-      </c>
-      <c r="E55" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
       </c>
       <c r="F55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
       <c r="I56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -2395,11 +2445,11 @@
       <c r="D57" s="2">
         <v>1</v>
       </c>
-      <c r="E57" s="8">
-        <v>0</v>
+      <c r="E57" s="6">
+        <v>1</v>
       </c>
       <c r="F57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -2408,154 +2458,180 @@
         <v>1</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="8">
-        <v>1</v>
+      <c r="E58" s="6">
+        <v>0</v>
       </c>
       <c r="F58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="8">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="8">
-        <v>1</v>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
       </c>
       <c r="F61" s="2">
         <v>0</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
       <c r="I61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="8">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="8">
-        <v>0</v>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
       <c r="I63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
       <c r="C64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
       </c>
-      <c r="E64" s="8">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2"/>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
       <c r="G64" s="2">
         <v>1</v>
       </c>
@@ -2563,33 +2639,33 @@
         <v>1</v>
       </c>
       <c r="I64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
       </c>
       <c r="D65" s="2">
-        <v>0</v>
-      </c>
-      <c r="E65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
       </c>
       <c r="G65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="3">
         <v>0</v>
@@ -2597,53 +2673,65 @@
     </row>
     <row r="66" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="8">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
       <c r="I67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -2654,11 +2742,11 @@
       <c r="D68" s="2">
         <v>0</v>
       </c>
-      <c r="E68" s="8">
-        <v>1</v>
+      <c r="E68" s="6">
+        <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -2667,12 +2755,12 @@
         <v>0</v>
       </c>
       <c r="I68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -2683,120 +2771,122 @@
       <c r="D69" s="2">
         <v>1</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
       <c r="H69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="B70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
       </c>
       <c r="G70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="8">
-        <v>0</v>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
       </c>
       <c r="F71" s="2">
-        <v>0</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
       </c>
-      <c r="C72" s="2">
-        <v>0</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-      <c r="E72" s="8">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
       </c>
-      <c r="G72" s="2">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
       </c>
       <c r="C73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="8">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="2">
         <v>1</v>
@@ -2807,157 +2897,149 @@
     </row>
     <row r="74" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
       </c>
-      <c r="C74" s="2">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
-      <c r="E74" s="8">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="6">
         <v>0</v>
       </c>
       <c r="F74" s="2">
-        <v>0</v>
-      </c>
-      <c r="G74" s="2">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="B75" s="2">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1</v>
-      </c>
-      <c r="E75" s="8">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
       </c>
-      <c r="G75" s="2">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2">
-        <v>1</v>
-      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="2">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="8">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2">
-        <v>1</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
       <c r="I76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="8">
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
       <c r="I77" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="8">
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
         <v>0</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
       <c r="I78" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>1</v>
-      </c>
-      <c r="E79" s="8">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="6"/>
       <c r="F79" s="2">
-        <v>0</v>
-      </c>
-      <c r="G79" s="2">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2">
-        <v>1</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -2966,9 +3048,9 @@
         <v>0</v>
       </c>
       <c r="D80" s="2">
-        <v>1</v>
-      </c>
-      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="2">
@@ -2978,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="3">
         <v>0</v>
@@ -2986,65 +3068,63 @@
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="2">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="8">
-        <v>1</v>
-      </c>
-      <c r="F81" s="2">
-        <v>1</v>
-      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="B82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
       </c>
       <c r="F82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="2">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
       <c r="I82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="B83" s="2">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
@@ -3053,132 +3133,142 @@
         <v>1</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="8">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
         <v>0</v>
       </c>
       <c r="F84" s="2">
         <v>0</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
       <c r="I84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
       </c>
-      <c r="E85" s="8">
-        <v>0</v>
+      <c r="E85" s="6">
+        <v>1</v>
       </c>
       <c r="F85" s="2">
         <v>0</v>
       </c>
-      <c r="G85" s="2">
-        <v>0</v>
-      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2">
         <v>1</v>
       </c>
       <c r="I85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
       </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1</v>
-      </c>
-      <c r="E86" s="8">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="6">
         <v>0</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
       </c>
-      <c r="G86" s="2">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2">
-        <v>1</v>
-      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
       <c r="I86" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="8">
-        <v>0</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
+        <v>1</v>
+      </c>
       <c r="I87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
       </c>
       <c r="D88" s="2">
-        <v>1</v>
-      </c>
-      <c r="E88" s="8">
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
         <v>1</v>
       </c>
       <c r="F88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
       </c>
       <c r="H88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
@@ -3186,75 +3276,71 @@
     </row>
     <row r="89" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="B89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="8">
-        <v>0</v>
+      <c r="E89" s="6">
+        <v>1</v>
       </c>
       <c r="F89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B90" s="2">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" s="2">
-        <v>1</v>
-      </c>
-      <c r="E90" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
       </c>
       <c r="F90" s="2">
         <v>0</v>
       </c>
-      <c r="G90" s="2">
-        <v>1</v>
-      </c>
+      <c r="G90" s="2"/>
       <c r="H90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="6">
         <v>1</v>
       </c>
       <c r="F91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="2">
         <v>1</v>
@@ -3265,89 +3351,89 @@
     </row>
     <row r="92" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B92" s="2">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
       </c>
       <c r="F92" s="2">
-        <v>1</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
       <c r="I92" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="B93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="2">
         <v>1</v>
       </c>
-      <c r="E93" s="8">
-        <v>1</v>
+      <c r="E93" s="6">
+        <v>0</v>
       </c>
       <c r="F93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
       </c>
       <c r="I93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2">
-        <v>1</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2">
-        <v>1</v>
-      </c>
-      <c r="E94" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="6">
+        <v>1</v>
       </c>
       <c r="F94" s="2">
-        <v>1</v>
-      </c>
-      <c r="G94" s="2">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" s="2">
         <v>1</v>
@@ -3355,11 +3441,11 @@
       <c r="D95" s="2">
         <v>1</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="6">
         <v>1</v>
       </c>
       <c r="F95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
@@ -3373,7 +3459,7 @@
     </row>
     <row r="96" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
@@ -3384,7 +3470,7 @@
       <c r="D96" s="2">
         <v>1</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="6">
         <v>1</v>
       </c>
       <c r="F96" s="2">
@@ -3402,103 +3488,123 @@
     </row>
     <row r="97" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
       </c>
       <c r="C97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="8">
-        <v>0</v>
+      <c r="E97" s="6">
+        <v>1</v>
       </c>
       <c r="F97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="8">
-        <v>0</v>
-      </c>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1</v>
+      </c>
       <c r="I98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
       </c>
       <c r="C99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="8">
+        <v>1</v>
+      </c>
+      <c r="E99" s="6">
         <v>1</v>
       </c>
       <c r="F99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
       </c>
       <c r="I99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="8">
-        <v>0</v>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
       </c>
       <c r="F100" s="2">
         <v>0</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1</v>
+      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -3507,30 +3613,30 @@
         <v>0</v>
       </c>
       <c r="D101" s="2">
-        <v>1</v>
-      </c>
-      <c r="E101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="6">
         <v>1</v>
       </c>
       <c r="F101" s="2">
         <v>0</v>
       </c>
       <c r="G101" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" s="2">
         <v>1</v>
@@ -3538,17 +3644,17 @@
       <c r="D102" s="2">
         <v>1</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="6">
         <v>1</v>
       </c>
       <c r="F102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
       <c r="H102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>1</v>
@@ -3556,23 +3662,31 @@
     </row>
     <row r="103" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="8">
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
         <v>0</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
       </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
       <c r="I103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3588,7 +3702,7 @@
       <c r="D104" s="2">
         <v>1</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="6">
         <v>1</v>
       </c>
       <c r="F104" s="2">
@@ -3606,215 +3720,219 @@
     </row>
     <row r="105" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="B105" s="2">
-        <v>1</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="8">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
         <v>0</v>
       </c>
       <c r="F105" s="2">
-        <v>1</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
       <c r="I105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
       </c>
-      <c r="C106" s="2">
-        <v>0</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="8">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="6">
         <v>0</v>
       </c>
       <c r="F106" s="2">
         <v>0</v>
       </c>
-      <c r="G106" s="2">
-        <v>0</v>
-      </c>
-      <c r="H106" s="2">
-        <v>0</v>
-      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
       <c r="I106" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="2">
-        <v>0</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="8">
-        <v>0</v>
-      </c>
-      <c r="F107" s="2">
-        <v>0</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2">
+        <v>1</v>
+      </c>
       <c r="I107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="2">
-        <v>0</v>
-      </c>
-      <c r="E108" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
       </c>
       <c r="F108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="B109" s="2">
         <v>0</v>
       </c>
       <c r="C109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="2">
-        <v>0</v>
-      </c>
-      <c r="E109" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
       </c>
       <c r="F109" s="2">
         <v>0</v>
       </c>
       <c r="G109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2">
         <v>0</v>
       </c>
-      <c r="C110" s="2">
-        <v>0</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-      <c r="E110" s="8">
-        <v>0</v>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="6">
+        <v>1</v>
       </c>
       <c r="F110" s="2">
         <v>0</v>
       </c>
-      <c r="G110" s="2">
-        <v>0</v>
-      </c>
-      <c r="H110" s="2">
-        <v>0</v>
-      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
       <c r="I110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2">
         <v>0</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="8">
-        <v>0</v>
+      <c r="C111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
       </c>
       <c r="F111" s="2">
         <v>0</v>
       </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
       <c r="I111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B112" s="2">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
       </c>
       <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="E112" s="8">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
       </c>
       <c r="H112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="B113" s="2">
         <v>0</v>
@@ -3823,10 +3941,10 @@
         <v>0</v>
       </c>
       <c r="D113" s="2">
-        <v>1</v>
-      </c>
-      <c r="E113" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
       </c>
       <c r="F113" s="2">
         <v>0</v>
@@ -3835,65 +3953,69 @@
         <v>0</v>
       </c>
       <c r="H113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B114" s="2">
         <v>0</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="8">
-        <v>0</v>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+      <c r="E114" s="6">
+        <v>1</v>
       </c>
       <c r="F114" s="2">
-        <v>0</v>
-      </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
       <c r="I114" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" s="2">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" s="2">
         <v>0</v>
       </c>
       <c r="D115" s="2">
         <v>0</v>
       </c>
-      <c r="E115" s="8">
-        <v>0</v>
-      </c>
-      <c r="F115" s="2">
-        <v>0</v>
-      </c>
+      <c r="E115" s="6">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="2">
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="B116" s="2">
         <v>0</v>
@@ -3902,9 +4024,9 @@
         <v>0</v>
       </c>
       <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="8">
+        <v>1</v>
+      </c>
+      <c r="E116" s="6">
         <v>0</v>
       </c>
       <c r="F116" s="2">
@@ -3914,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
@@ -3922,226 +4044,222 @@
     </row>
     <row r="117" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2">
         <v>0</v>
       </c>
       <c r="C117" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
       </c>
       <c r="F117" s="2">
         <v>0</v>
       </c>
       <c r="G117" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2">
         <v>0</v>
       </c>
       <c r="C118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="8">
-        <v>0</v>
+      <c r="E118" s="6">
+        <v>1</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
       </c>
       <c r="G118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
       </c>
       <c r="I118" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2">
         <v>0</v>
       </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
-      <c r="E119" s="8">
-        <v>0</v>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="6">
+        <v>1</v>
       </c>
       <c r="F119" s="2">
-        <v>0</v>
-      </c>
-      <c r="G119" s="2">
-        <v>0</v>
-      </c>
-      <c r="H119" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
       <c r="I119" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B120" s="2">
         <v>0</v>
       </c>
-      <c r="C120" s="2">
-        <v>1</v>
-      </c>
-      <c r="D120" s="2">
-        <v>1</v>
-      </c>
-      <c r="E120" s="8">
-        <v>1</v>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="6">
+        <v>0</v>
       </c>
       <c r="F120" s="2">
         <v>0</v>
       </c>
-      <c r="G120" s="2">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2">
-        <v>1</v>
-      </c>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
       <c r="I120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="8">
-        <v>0</v>
-      </c>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0</v>
+      </c>
       <c r="I121" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2">
         <v>0</v>
       </c>
-      <c r="C122" s="2">
-        <v>1</v>
-      </c>
-      <c r="D122" s="2">
-        <v>1</v>
-      </c>
-      <c r="E122" s="8">
-        <v>1</v>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="6">
+        <v>0</v>
       </c>
       <c r="F122" s="2">
         <v>0</v>
       </c>
-      <c r="G122" s="2">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2">
-        <v>1</v>
-      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
       <c r="I122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>0</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="8">
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="6">
         <v>0</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
       </c>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0</v>
+      </c>
       <c r="I123" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="B124" s="2">
         <v>0</v>
       </c>
       <c r="C124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="2">
         <v>1</v>
       </c>
-      <c r="E124" s="8">
-        <v>0</v>
+      <c r="E124" s="6">
+        <v>1</v>
       </c>
       <c r="F124" s="2">
         <v>0</v>
       </c>
       <c r="G124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="2">
         <v>1</v>
       </c>
       <c r="I124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B125" s="2">
         <v>0</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="8">
+      <c r="E125" s="6">
         <v>0</v>
       </c>
       <c r="F125" s="2">
@@ -4155,7 +4273,7 @@
     </row>
     <row r="126" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="B126" s="2">
         <v>0</v>
@@ -4166,7 +4284,7 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="8">
+      <c r="E126" s="6">
         <v>0</v>
       </c>
       <c r="F126" s="2">
@@ -4184,31 +4302,39 @@
     </row>
     <row r="127" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="B127" s="2">
         <v>0</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="8">
-        <v>1</v>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
       </c>
       <c r="F127" s="2">
         <v>0</v>
       </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
       <c r="I127" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="B128" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="2">
         <v>1</v>
@@ -4216,17 +4342,17 @@
       <c r="D128" s="2">
         <v>1</v>
       </c>
-      <c r="E128" s="8">
+      <c r="E128" s="6">
         <v>1</v>
       </c>
       <c r="F128" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
       </c>
       <c r="H128" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" s="3">
         <v>1</v>
@@ -4234,50 +4360,54 @@
     </row>
     <row r="129" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="B129" s="2">
-        <v>0</v>
-      </c>
-      <c r="C129" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1</v>
+      </c>
       <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1</v>
       </c>
       <c r="F129" s="2">
-        <v>0</v>
-      </c>
-      <c r="G129" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G129" s="2">
+        <v>1</v>
+      </c>
       <c r="H129" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="B130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2">
         <v>1</v>
       </c>
-      <c r="E130" s="8">
+      <c r="E130" s="6">
         <v>0</v>
       </c>
       <c r="F130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" s="2">
         <v>1</v>
@@ -4288,66 +4418,60 @@
     </row>
     <row r="131" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B131" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0</v>
       </c>
       <c r="F131" s="2">
-        <v>1</v>
-      </c>
-      <c r="G131" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
       <c r="H131" s="2">
         <v>1</v>
       </c>
       <c r="I131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="2">
-        <v>1</v>
-      </c>
-      <c r="D132" s="2">
-        <v>1</v>
-      </c>
-      <c r="E132" s="8">
-        <v>1</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="2">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="6">
+        <v>0</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
       <c r="I132" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -4355,11 +4479,11 @@
       <c r="D133" s="2">
         <v>1</v>
       </c>
-      <c r="E133" s="8">
-        <v>0</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>12</v>
+      <c r="E133" s="6">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -4368,82 +4492,66 @@
         <v>1</v>
       </c>
       <c r="I133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="2">
-        <v>1</v>
-      </c>
-      <c r="D134" s="2">
-        <v>1</v>
-      </c>
-      <c r="E134" s="8">
-        <v>1</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="2">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
       <c r="I134" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="2">
-        <v>1</v>
-      </c>
-      <c r="D135" s="2">
-        <v>1</v>
-      </c>
-      <c r="E135" s="8">
-        <v>1</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="2">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="6">
+        <v>0</v>
+      </c>
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
       <c r="I135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="B136" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" s="2">
-        <v>1</v>
-      </c>
-      <c r="E136" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E136" s="6">
+        <v>1</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
@@ -4452,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" s="3">
         <v>0</v>
@@ -4460,82 +4568,70 @@
     </row>
     <row r="137" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="B137" s="2">
-        <v>0</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="6">
+        <v>1</v>
       </c>
       <c r="F137" s="2">
         <v>0</v>
       </c>
-      <c r="G137" s="2">
-        <v>0</v>
-      </c>
-      <c r="H137" s="2">
-        <v>0</v>
-      </c>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
       <c r="I137" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B138" s="2">
         <v>1</v>
       </c>
-      <c r="C138" s="2">
-        <v>1</v>
-      </c>
-      <c r="D138" s="2">
-        <v>1</v>
-      </c>
-      <c r="E138" s="8">
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="6">
         <v>1</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
       </c>
-      <c r="G138" s="2">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2">
-        <v>1</v>
-      </c>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
       <c r="I138" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2">
         <v>0</v>
       </c>
-      <c r="C139" s="2"/>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
       <c r="D139" s="2">
-        <v>1</v>
-      </c>
-      <c r="E139" s="8">
+        <v>0</v>
+      </c>
+      <c r="E139" s="6">
         <v>0</v>
       </c>
       <c r="F139" s="2">
         <v>0</v>
       </c>
-      <c r="G139" s="2"/>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
       <c r="H139" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" s="3">
         <v>0</v>
@@ -4554,7 +4650,7 @@
       <c r="D140" s="2">
         <v>1</v>
       </c>
-      <c r="E140" s="8">
+      <c r="E140" s="6">
         <v>1</v>
       </c>
       <c r="F140" s="2">
@@ -4572,54 +4668,42 @@
     </row>
     <row r="141" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B141" s="2">
-        <v>0</v>
-      </c>
-      <c r="C141" s="2">
-        <v>1</v>
-      </c>
-      <c r="D141" s="2">
-        <v>1</v>
-      </c>
-      <c r="E141" s="8">
-        <v>1</v>
-      </c>
-      <c r="F141" s="2">
-        <v>0</v>
-      </c>
-      <c r="G141" s="2">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="6">
+        <v>0</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
       <c r="I141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="B142" s="2">
         <v>0</v>
       </c>
       <c r="C142" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142" s="2">
-        <v>0</v>
-      </c>
-      <c r="E142" s="8">
+        <v>1</v>
+      </c>
+      <c r="E142" s="6">
         <v>0</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
       </c>
       <c r="G142" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="2">
         <v>1</v>
@@ -4630,22 +4714,26 @@
     </row>
     <row r="143" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B143" s="2">
         <v>0</v>
       </c>
-      <c r="C143" s="2"/>
+      <c r="C143" s="2">
+        <v>1</v>
+      </c>
       <c r="D143" s="2">
         <v>1</v>
       </c>
-      <c r="E143" s="8">
+      <c r="E143" s="6">
         <v>1</v>
       </c>
       <c r="F143" s="2">
         <v>0</v>
       </c>
-      <c r="G143" s="2"/>
+      <c r="G143" s="2">
+        <v>1</v>
+      </c>
       <c r="H143" s="2">
         <v>1</v>
       </c>
@@ -4655,25 +4743,25 @@
     </row>
     <row r="144" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="B144" s="2">
         <v>0</v>
       </c>
       <c r="C144" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E144" s="6">
+        <v>1</v>
       </c>
       <c r="F144" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" s="2">
         <v>1</v>
@@ -4684,7 +4772,7 @@
     </row>
     <row r="145" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2">
         <v>0</v>
@@ -4695,7 +4783,7 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-      <c r="E145" s="8">
+      <c r="E145" s="6">
         <v>0</v>
       </c>
       <c r="F145" s="2">
@@ -4704,72 +4792,74 @@
       <c r="G145" s="2">
         <v>0</v>
       </c>
-      <c r="H145" s="2"/>
+      <c r="H145" s="2">
+        <v>0</v>
+      </c>
       <c r="I145" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2">
         <v>0</v>
       </c>
       <c r="C146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" s="2">
-        <v>1</v>
-      </c>
-      <c r="E146" s="8">
+        <v>0</v>
+      </c>
+      <c r="E146" s="6">
         <v>0</v>
       </c>
       <c r="F146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2">
         <v>0</v>
       </c>
       <c r="C147" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" s="2">
         <v>1</v>
       </c>
-      <c r="E147" s="8">
-        <v>1</v>
+      <c r="E147" s="6">
+        <v>0</v>
       </c>
       <c r="F147" s="2">
         <v>0</v>
       </c>
       <c r="G147" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" s="2">
         <v>1</v>
       </c>
       <c r="I147" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="B148" s="2">
         <v>0</v>
@@ -4780,7 +4870,7 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="8">
+      <c r="E148" s="6">
         <v>0</v>
       </c>
       <c r="F148" s="2">
@@ -4790,26 +4880,24 @@
         <v>0</v>
       </c>
       <c r="H148" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="B149" s="2">
         <v>0</v>
       </c>
-      <c r="C149" s="2">
-        <v>1</v>
-      </c>
+      <c r="C149" s="2"/>
       <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="8">
+        <v>1</v>
+      </c>
+      <c r="E149" s="6">
         <v>1</v>
       </c>
       <c r="F149" s="2">
@@ -4822,12 +4910,12 @@
         <v>1</v>
       </c>
       <c r="I149" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B150" s="2">
         <v>0</v>
@@ -4838,8 +4926,8 @@
       <c r="D150" s="2">
         <v>1</v>
       </c>
-      <c r="E150" s="8">
-        <v>1</v>
+      <c r="E150" s="6">
+        <v>0</v>
       </c>
       <c r="F150" s="2">
         <v>0</v>
@@ -4851,30 +4939,30 @@
         <v>1</v>
       </c>
       <c r="I150" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2">
         <v>0</v>
       </c>
       <c r="C151" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" s="2">
         <v>1</v>
       </c>
-      <c r="E151" s="8">
+      <c r="E151" s="6">
         <v>1</v>
       </c>
       <c r="F151" s="2">
         <v>0</v>
       </c>
       <c r="G151" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="2">
         <v>1</v>
@@ -4885,10 +4973,10 @@
     </row>
     <row r="152" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B152" s="2">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -4896,11 +4984,11 @@
       <c r="D152" s="2">
         <v>1</v>
       </c>
-      <c r="E152" s="8">
-        <v>0</v>
-      </c>
-      <c r="F152" s="2">
-        <v>0</v>
+      <c r="E152" s="6">
+        <v>0</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G152" s="2">
         <v>0</v>
@@ -4914,94 +5002,70 @@
     </row>
     <row r="153" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="B153" s="2">
         <v>0</v>
       </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="8">
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="6">
         <v>0</v>
       </c>
       <c r="F153" s="2">
         <v>0</v>
       </c>
-      <c r="G153" s="2">
-        <v>0</v>
-      </c>
-      <c r="H153" s="2">
-        <v>0</v>
-      </c>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
       <c r="I153" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B154" s="2">
         <v>0</v>
       </c>
-      <c r="C154" s="2">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2">
-        <v>0</v>
-      </c>
-      <c r="E154" s="8">
-        <v>0</v>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="6">
+        <v>1</v>
       </c>
       <c r="F154" s="2">
         <v>0</v>
       </c>
-      <c r="G154" s="2">
-        <v>0</v>
-      </c>
-      <c r="H154" s="2">
-        <v>0</v>
-      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
       <c r="I154" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2">
         <v>0</v>
       </c>
-      <c r="C155" s="2">
-        <v>1</v>
-      </c>
-      <c r="D155" s="2">
-        <v>1</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>12</v>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="6">
+        <v>0</v>
       </c>
       <c r="F155" s="2">
         <v>0</v>
       </c>
-      <c r="G155" s="2">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2">
-        <v>1</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>12</v>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="B156" s="2">
         <v>0</v>
@@ -5012,8 +5076,8 @@
       <c r="D156" s="2">
         <v>1</v>
       </c>
-      <c r="E156" s="8">
-        <v>1</v>
+      <c r="E156" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F156" s="2">
         <v>0</v>
@@ -5024,30 +5088,30 @@
       <c r="H156" s="2">
         <v>1</v>
       </c>
-      <c r="I156" s="3">
-        <v>1</v>
+      <c r="I156" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B157" s="2">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="2">
-        <v>1</v>
-      </c>
+      <c r="E157" s="6">
+        <v>0</v>
+      </c>
+      <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="3"/>
+      <c r="I157" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B158" s="2">
         <v>0</v>
@@ -5058,7 +5122,7 @@
       <c r="D158" s="2">
         <v>1</v>
       </c>
-      <c r="E158" s="8">
+      <c r="E158" s="6">
         <v>1</v>
       </c>
       <c r="F158" s="2">
@@ -5071,12 +5135,12 @@
         <v>1</v>
       </c>
       <c r="I158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B159" s="2">
         <v>0</v>
@@ -5087,8 +5151,8 @@
       <c r="D159" s="2">
         <v>1</v>
       </c>
-      <c r="E159" s="8">
-        <v>1</v>
+      <c r="E159" s="6">
+        <v>0</v>
       </c>
       <c r="F159" s="2">
         <v>0</v>
@@ -5100,15 +5164,15 @@
         <v>1</v>
       </c>
       <c r="I159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B160" s="2">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C160" s="2">
         <v>1</v>
@@ -5116,11 +5180,11 @@
       <c r="D160" s="2">
         <v>1</v>
       </c>
-      <c r="E160" s="8">
-        <v>1</v>
-      </c>
-      <c r="F160" s="2">
-        <v>0</v>
+      <c r="E160" s="6">
+        <v>1</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G160" s="2">
         <v>1</v>
@@ -5134,36 +5198,28 @@
     </row>
     <row r="161" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="B161" s="2">
         <v>0</v>
       </c>
-      <c r="C161" s="2">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
-        <v>1</v>
-      </c>
-      <c r="E161" s="8">
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="6">
         <v>0</v>
       </c>
       <c r="F161" s="2">
         <v>0</v>
       </c>
-      <c r="G161" s="2">
-        <v>0</v>
-      </c>
-      <c r="H161" s="2">
-        <v>1</v>
-      </c>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
       <c r="I161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2">
         <v>0</v>
@@ -5174,7 +5230,7 @@
       <c r="D162" s="2">
         <v>0</v>
       </c>
-      <c r="E162" s="8">
+      <c r="E162" s="6">
         <v>0</v>
       </c>
       <c r="F162" s="2">
@@ -5192,24 +5248,24 @@
     </row>
     <row r="163" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="B163" s="2">
         <v>0</v>
       </c>
-      <c r="C163" s="2"/>
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
       <c r="D163" s="2">
         <v>1</v>
       </c>
-      <c r="E163" s="8">
+      <c r="E163" s="6">
         <v>1</v>
       </c>
       <c r="F163" s="2">
         <v>0</v>
       </c>
-      <c r="G163" s="2">
-        <v>1</v>
-      </c>
+      <c r="G163" s="2"/>
       <c r="H163" s="2">
         <v>1</v>
       </c>
@@ -5219,19 +5275,23 @@
     </row>
     <row r="164" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B164" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0</v>
+      </c>
       <c r="C164" s="2">
         <v>0</v>
       </c>
       <c r="D164" s="2">
         <v>0</v>
       </c>
-      <c r="E164" s="8">
-        <v>0</v>
-      </c>
-      <c r="F164" s="2"/>
+      <c r="E164" s="6">
+        <v>0</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0</v>
+      </c>
       <c r="G164" s="2">
         <v>0</v>
       </c>
@@ -5244,80 +5304,68 @@
     </row>
     <row r="165" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="B165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" s="2">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>1</v>
-      </c>
-      <c r="E165" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="6">
+        <v>1</v>
       </c>
       <c r="F165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" s="2">
-        <v>0</v>
-      </c>
-      <c r="H165" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H165" s="2"/>
       <c r="I165" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B166" s="2">
-        <v>0</v>
-      </c>
-      <c r="C166" s="2">
-        <v>1</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="E166" s="8">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="6">
         <v>1</v>
       </c>
       <c r="F166" s="2">
-        <v>0</v>
-      </c>
-      <c r="G166" s="2">
-        <v>1</v>
-      </c>
-      <c r="H166" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
       <c r="I166" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2">
         <v>0</v>
       </c>
       <c r="C167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" s="2">
         <v>1</v>
       </c>
-      <c r="E167" s="8">
+      <c r="E167" s="6">
         <v>1</v>
       </c>
       <c r="F167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" s="2">
         <v>1</v>
@@ -5326,99 +5374,79 @@
         <v>1</v>
       </c>
       <c r="I167" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2">
         <v>0</v>
       </c>
       <c r="C168" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E168" s="6">
+        <v>0</v>
       </c>
       <c r="F168" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" s="2">
         <v>1</v>
       </c>
       <c r="I168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B169" s="2">
         <v>1</v>
       </c>
-      <c r="C169" s="2">
-        <v>1</v>
-      </c>
-      <c r="D169" s="2">
-        <v>1</v>
-      </c>
-      <c r="E169" s="8">
-        <v>1</v>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="6">
+        <v>0</v>
       </c>
       <c r="F169" s="2">
         <v>1</v>
       </c>
-      <c r="G169" s="2">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2">
-        <v>1</v>
-      </c>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
       <c r="I169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B170" s="2">
-        <v>0</v>
-      </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="8">
-        <v>1</v>
-      </c>
-      <c r="F170" s="2">
-        <v>0</v>
-      </c>
-      <c r="G170" s="2">
-        <v>0</v>
-      </c>
-      <c r="H170" s="2">
-        <v>0</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="6">
+        <v>0</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
       <c r="I170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B171" s="2">
         <v>0</v>
@@ -5429,7 +5457,7 @@
       <c r="D171" s="2">
         <v>0</v>
       </c>
-      <c r="E171" s="8">
+      <c r="E171" s="6">
         <v>0</v>
       </c>
       <c r="F171" s="2">
@@ -5447,7 +5475,7 @@
     </row>
     <row r="172" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="B172" s="2">
         <v>0</v>
@@ -5458,40 +5486,44 @@
       <c r="D172" s="2">
         <v>0</v>
       </c>
-      <c r="E172" s="8">
-        <v>0</v>
-      </c>
-      <c r="F172" s="2"/>
+      <c r="E172" s="6">
+        <v>0</v>
+      </c>
+      <c r="F172" s="2">
+        <v>0</v>
+      </c>
       <c r="G172" s="2">
         <v>0</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
       </c>
-      <c r="I172" s="3">
-        <v>0</v>
+      <c r="I172" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="B173" s="2">
         <v>1</v>
       </c>
       <c r="C173" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
       </c>
-      <c r="E173" s="8">
+      <c r="E173" s="6">
         <v>1</v>
       </c>
       <c r="F173" s="2">
-        <v>0</v>
-      </c>
-      <c r="G173" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1</v>
+      </c>
       <c r="H173" s="2">
         <v>1</v>
       </c>
@@ -5501,7 +5533,7 @@
     </row>
     <row r="174" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="B174" s="2">
         <v>0</v>
@@ -5512,66 +5544,56 @@
       <c r="D174" s="2">
         <v>0</v>
       </c>
-      <c r="E174" s="8">
-        <v>0</v>
-      </c>
-      <c r="F174" s="2">
-        <v>0</v>
-      </c>
+      <c r="E174" s="6">
+        <v>1</v>
+      </c>
+      <c r="F174" s="2"/>
       <c r="G174" s="2">
         <v>0</v>
       </c>
       <c r="H174" s="2">
         <v>0</v>
       </c>
-      <c r="I174" s="3" t="s">
-        <v>12</v>
+      <c r="I174" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B175" s="2">
         <v>0</v>
       </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
-        <v>1</v>
-      </c>
-      <c r="E175" s="8">
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="6">
         <v>0</v>
       </c>
       <c r="F175" s="2">
         <v>0</v>
       </c>
-      <c r="G175" s="2">
-        <v>0</v>
-      </c>
-      <c r="H175" s="2">
-        <v>1</v>
-      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
       <c r="I175" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="B176" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
       </c>
       <c r="D176" s="2">
-        <v>1</v>
-      </c>
-      <c r="E176" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E176" s="6">
+        <v>0</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
@@ -5580,15 +5602,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="B177" s="2">
         <v>0</v>
@@ -5597,9 +5619,9 @@
         <v>0</v>
       </c>
       <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="8">
+        <v>1</v>
+      </c>
+      <c r="E177" s="6">
         <v>0</v>
       </c>
       <c r="F177" s="2">
@@ -5612,12 +5634,12 @@
         <v>1</v>
       </c>
       <c r="I177" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B178" s="2">
         <v>0</v>
@@ -5626,15 +5648,17 @@
         <v>0</v>
       </c>
       <c r="D178" s="2">
-        <v>1</v>
-      </c>
-      <c r="E178" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0</v>
       </c>
       <c r="F178" s="2">
         <v>0</v>
       </c>
-      <c r="G178" s="2"/>
+      <c r="G178" s="2">
+        <v>0</v>
+      </c>
       <c r="H178" s="2">
         <v>1</v>
       </c>
@@ -5644,152 +5668,136 @@
     </row>
     <row r="179" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B179" s="2">
         <v>0</v>
       </c>
-      <c r="C179" s="2">
-        <v>1</v>
-      </c>
-      <c r="D179" s="2">
-        <v>1</v>
-      </c>
-      <c r="E179" s="8">
-        <v>1</v>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="6">
+        <v>0</v>
       </c>
       <c r="F179" s="2">
         <v>0</v>
       </c>
-      <c r="G179" s="2">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2">
-        <v>1</v>
-      </c>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
       <c r="I179" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B180" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" s="2">
         <v>1</v>
       </c>
-      <c r="E180" s="8">
-        <v>1</v>
+      <c r="E180" s="6">
+        <v>0</v>
       </c>
       <c r="F180" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B181" s="2">
         <v>0</v>
       </c>
       <c r="C181" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" s="2">
         <v>1</v>
       </c>
-      <c r="E181" s="8">
-        <v>0</v>
+      <c r="E181" s="6">
+        <v>1</v>
       </c>
       <c r="F181" s="2">
         <v>0</v>
       </c>
       <c r="G181" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" s="2">
         <v>1</v>
       </c>
       <c r="I181" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B182" s="2">
         <v>0</v>
       </c>
       <c r="C182" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" s="2">
         <v>1</v>
       </c>
-      <c r="E182" s="8">
-        <v>1</v>
+      <c r="E182" s="6">
+        <v>0</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
       </c>
       <c r="G182" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" s="2">
         <v>1</v>
       </c>
       <c r="I182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="B183" s="2">
         <v>0</v>
       </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>1</v>
-      </c>
-      <c r="E183" s="8">
-        <v>1</v>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="6">
+        <v>0</v>
       </c>
       <c r="F183" s="2">
-        <v>1</v>
-      </c>
-      <c r="G183" s="2">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
       <c r="I183" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="B184" s="2">
         <v>0</v>
@@ -5800,7 +5808,7 @@
       <c r="D184" s="2">
         <v>0</v>
       </c>
-      <c r="E184" s="8">
+      <c r="E184" s="6">
         <v>0</v>
       </c>
       <c r="F184" s="2">
@@ -5818,139 +5826,123 @@
     </row>
     <row r="185" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B185" s="2">
         <v>0</v>
       </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
-        <v>1</v>
-      </c>
-      <c r="E185" s="8">
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="6">
         <v>0</v>
       </c>
       <c r="F185" s="2">
-        <v>0</v>
-      </c>
-      <c r="G185" s="2">
-        <v>0</v>
-      </c>
-      <c r="H185" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
       <c r="I185" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B186" s="2">
         <v>0</v>
       </c>
-      <c r="C186" s="2">
-        <v>1</v>
-      </c>
+      <c r="C186" s="2"/>
       <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="8">
+        <v>1</v>
+      </c>
+      <c r="E186" s="6">
         <v>1</v>
       </c>
       <c r="F186" s="2">
         <v>0</v>
       </c>
-      <c r="G186" s="2">
-        <v>1</v>
-      </c>
+      <c r="G186" s="2"/>
       <c r="H186" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="B187" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" s="2">
-        <v>0</v>
-      </c>
-      <c r="E187" s="8">
+        <v>1</v>
+      </c>
+      <c r="E187" s="6">
         <v>0</v>
       </c>
       <c r="F187" s="2">
         <v>0</v>
       </c>
       <c r="G187" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" s="2">
-        <v>0</v>
-      </c>
-      <c r="E188" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E188" s="6">
+        <v>1</v>
       </c>
       <c r="F188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B189" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B189" s="2"/>
       <c r="C189" s="2">
         <v>1</v>
       </c>
       <c r="D189" s="2">
-        <v>0</v>
-      </c>
-      <c r="E189" s="8">
-        <v>0</v>
-      </c>
-      <c r="F189" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E189" s="6">
+        <v>1</v>
+      </c>
+      <c r="F189" s="2"/>
       <c r="G189" s="2">
         <v>1</v>
       </c>
@@ -5963,19 +5955,23 @@
     </row>
     <row r="190" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B190" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0</v>
+      </c>
       <c r="C190" s="2">
         <v>0</v>
       </c>
       <c r="D190" s="2">
         <v>0</v>
       </c>
-      <c r="E190" s="8">
-        <v>0</v>
-      </c>
-      <c r="F190" s="2"/>
+      <c r="E190" s="6">
+        <v>0</v>
+      </c>
+      <c r="F190" s="2">
+        <v>0</v>
+      </c>
       <c r="G190" s="2">
         <v>0</v>
       </c>
@@ -5988,7 +5984,7 @@
     </row>
     <row r="191" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="B191" s="2">
         <v>0</v>
@@ -5997,66 +5993,72 @@
         <v>0</v>
       </c>
       <c r="D191" s="2">
-        <v>0</v>
-      </c>
-      <c r="E191" s="8">
-        <v>1</v>
-      </c>
-      <c r="F191" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E191" s="6">
+        <v>0</v>
+      </c>
+      <c r="F191" s="2">
+        <v>0</v>
+      </c>
       <c r="G191" s="2">
         <v>0</v>
       </c>
       <c r="H191" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="B192" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" s="2">
         <v>1</v>
       </c>
-      <c r="E192" s="8">
+      <c r="E192" s="6">
         <v>0</v>
       </c>
       <c r="F192" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" s="2">
         <v>1</v>
       </c>
       <c r="I192" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B193" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0</v>
+      </c>
       <c r="C193" s="2">
         <v>1</v>
       </c>
       <c r="D193" s="2">
         <v>1</v>
       </c>
-      <c r="E193" s="8">
-        <v>1</v>
-      </c>
-      <c r="F193" s="2"/>
+      <c r="E193" s="6">
+        <v>1</v>
+      </c>
+      <c r="F193" s="2">
+        <v>0</v>
+      </c>
       <c r="G193" s="2">
         <v>1</v>
       </c>
@@ -6069,34 +6071,37 @@
     </row>
     <row r="194" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="B194" s="2">
         <v>0</v>
       </c>
       <c r="C194" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" s="2">
         <v>0</v>
       </c>
-      <c r="E194" s="8">
-        <v>0</v>
+      <c r="E194" s="6">
+        <v>1</v>
       </c>
       <c r="F194" s="2">
         <v>0</v>
       </c>
       <c r="G194" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I194">
+    <sortCondition ref="A1"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:E1"/>
